--- a/docs/restfulapi.xlsx
+++ b/docs/restfulapi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAIZAKURA\Desktop\Works\Project\SmartManholeDash\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16262BA-EA73-4825-A534-0AFE00D8E66F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8BA8C1-48F1-484A-84AF-D5554DB4DC54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="95">
   <si>
     <t>Restful API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,18 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ldept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldatabeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldataend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ldev</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -363,10 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>msg : {ldept}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Get Logs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,6 +376,34 @@
   </si>
   <si>
     <t>Create Logs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg : {ldep}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldatbeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldatend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg : {vdept}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only Can Get Owned Dept Logs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg : {udept}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -645,6 +657,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -667,7 +759,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -679,6 +771,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
@@ -699,34 +815,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="5">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="6">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,32 +1134,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y92"/>
+  <dimension ref="A1:Y90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -1053,21 +1172,21 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1108,23 +1227,23 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -1137,21 +1256,21 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1164,31 +1283,31 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1201,27 +1320,27 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1234,31 +1353,31 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15" t="s">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1271,25 +1390,25 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1356,23 +1475,23 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1385,21 +1504,21 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1412,31 +1531,31 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18" t="s">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1449,27 +1568,27 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18" t="s">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18" t="s">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1482,33 +1601,33 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15" t="s">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15" t="s">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1521,25 +1640,25 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15" t="s">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1552,25 +1671,25 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1583,23 +1702,23 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1612,29 +1731,29 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12" t="s">
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1647,23 +1766,23 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -1676,35 +1795,35 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15" t="s">
+      <c r="H23" s="5"/>
+      <c r="I23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15" t="s">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15" t="s">
+      <c r="L23" s="5"/>
+      <c r="M23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
       <c r="P23" s="11" t="s">
         <v>19</v>
       </c>
@@ -1719,29 +1838,29 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15" t="s">
+      <c r="H24" s="5"/>
+      <c r="I24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15" t="s">
+      <c r="J24" s="5"/>
+      <c r="K24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
@@ -1754,23 +1873,23 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
@@ -1783,23 +1902,23 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
@@ -1812,35 +1931,35 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12" t="s">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12" t="s">
+      <c r="H27" s="10"/>
+      <c r="I27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12" t="s">
+      <c r="J27" s="10"/>
+      <c r="K27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12" t="s">
+      <c r="L27" s="10"/>
+      <c r="M27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
@@ -1853,29 +1972,29 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12" t="s">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12" t="s">
+      <c r="F28" s="10"/>
+      <c r="G28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12" t="s">
+      <c r="H28" s="10"/>
+      <c r="I28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12" t="s">
+      <c r="J28" s="10"/>
+      <c r="K28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
@@ -1888,35 +2007,35 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15" t="s">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15" t="s">
+      <c r="H29" s="5"/>
+      <c r="I29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15" t="s">
+      <c r="J29" s="5"/>
+      <c r="K29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15" t="s">
+      <c r="L29" s="5"/>
+      <c r="M29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
       <c r="P29" s="11" t="s">
         <v>24</v>
       </c>
@@ -1931,29 +2050,29 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15" t="s">
+      <c r="H30" s="5"/>
+      <c r="I30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15" t="s">
+      <c r="J30" s="5"/>
+      <c r="K30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
@@ -1966,23 +2085,23 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
@@ -1995,33 +2114,35 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12" t="s">
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12" t="s">
+      <c r="F32" s="10"/>
+      <c r="G32" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12" t="s">
+      <c r="H32" s="10"/>
+      <c r="I32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12" t="s">
+      <c r="L32" s="10"/>
+      <c r="M32" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
       <c r="P32" s="11" t="s">
         <v>19</v>
       </c>
@@ -2036,27 +2157,29 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12" t="s">
+      <c r="I33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
@@ -2069,23 +2192,23 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
@@ -2098,23 +2221,23 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
@@ -2181,23 +2304,23 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -2210,21 +2333,21 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -2237,31 +2360,31 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18" t="s">
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18" t="s">
+      <c r="F40" s="9"/>
+      <c r="G40" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18" t="s">
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -2274,27 +2397,27 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18" t="s">
+      <c r="H41" s="9"/>
+      <c r="I41" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18" t="s">
+      <c r="J41" s="9"/>
+      <c r="K41" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -2307,35 +2430,35 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15" t="s">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15" t="s">
+      <c r="F42" s="5"/>
+      <c r="G42" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15" t="s">
+      <c r="H42" s="5"/>
+      <c r="I42" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15" t="s">
+      <c r="J42" s="5"/>
+      <c r="K42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15" t="s">
+      <c r="L42" s="5"/>
+      <c r="M42" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
       <c r="P42" s="11" t="s">
         <v>46</v>
       </c>
@@ -2350,29 +2473,29 @@
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15" t="s">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15" t="s">
+      <c r="F43" s="5"/>
+      <c r="G43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15" t="s">
+      <c r="H43" s="5"/>
+      <c r="I43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15" t="s">
+      <c r="J43" s="5"/>
+      <c r="K43" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
@@ -2385,35 +2508,35 @@
       <c r="Y43" s="1"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12" t="s">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12" t="s">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12" t="s">
+      <c r="F44" s="10"/>
+      <c r="G44" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12" t="s">
+      <c r="H44" s="10"/>
+      <c r="I44" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12" t="s">
+      <c r="J44" s="10"/>
+      <c r="K44" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12" t="s">
+      <c r="L44" s="10"/>
+      <c r="M44" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
@@ -2426,27 +2549,27 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12" t="s">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12" t="s">
+      <c r="H45" s="10"/>
+      <c r="I45" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12" t="s">
+      <c r="J45" s="10"/>
+      <c r="K45" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
@@ -2459,35 +2582,35 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15" t="s">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15" t="s">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15" t="s">
+      <c r="F46" s="5"/>
+      <c r="G46" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15" t="s">
+      <c r="H46" s="5"/>
+      <c r="I46" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15" t="s">
+      <c r="J46" s="5"/>
+      <c r="K46" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15" t="s">
+      <c r="L46" s="5"/>
+      <c r="M46" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
@@ -2500,29 +2623,29 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15" t="s">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15" t="s">
+      <c r="F47" s="5"/>
+      <c r="G47" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15" t="s">
+      <c r="H47" s="5"/>
+      <c r="I47" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15" t="s">
+      <c r="J47" s="5"/>
+      <c r="K47" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
@@ -2535,31 +2658,31 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12" t="s">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12" t="s">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12" t="s">
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12" t="s">
+      <c r="L48" s="10"/>
+      <c r="M48" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
@@ -2572,27 +2695,27 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12" t="s">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10" t="s">
         <v>40</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12" t="s">
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
@@ -2605,23 +2728,23 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
       <c r="H50" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
@@ -2688,23 +2811,23 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -2717,21 +2840,21 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -2744,31 +2867,31 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18" t="s">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18" t="s">
+      <c r="D55" s="9"/>
+      <c r="E55" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18" t="s">
+      <c r="F55" s="9"/>
+      <c r="G55" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18" t="s">
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -2781,27 +2904,27 @@
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18" t="s">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18" t="s">
+      <c r="H56" s="9"/>
+      <c r="I56" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18" t="s">
+      <c r="J56" s="9"/>
+      <c r="K56" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -2814,40 +2937,40 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15" t="s">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15" t="s">
+      <c r="D57" s="5"/>
+      <c r="E57" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15" t="s">
+      <c r="F57" s="5"/>
+      <c r="G57" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15" t="s">
+      <c r="H57" s="5"/>
+      <c r="I57" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15" t="s">
+      <c r="J57" s="5"/>
+      <c r="K57" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15" t="s">
+      <c r="L57" s="5"/>
+      <c r="M57" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="23"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
@@ -2857,32 +2980,32 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15" t="s">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15" t="s">
+      <c r="F58" s="5"/>
+      <c r="G58" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15" t="s">
+      <c r="H58" s="5"/>
+      <c r="I58" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15" t="s">
+      <c r="J58" s="5"/>
+      <c r="K58" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="26"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
@@ -2892,26 +3015,26 @@
       <c r="Y58" s="2"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15" t="s">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="26"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
@@ -2921,26 +3044,26 @@
       <c r="Y59" s="2"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15" t="s">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="26"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
@@ -2950,40 +3073,38 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12" t="s">
+      <c r="B61" s="10"/>
+      <c r="C61" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12" t="s">
+      <c r="D61" s="10"/>
+      <c r="E61" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12" t="s">
+      <c r="F61" s="10"/>
+      <c r="G61" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12" t="s">
+      <c r="H61" s="10"/>
+      <c r="I61" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12" t="s">
+      <c r="J61" s="10"/>
+      <c r="K61" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12" t="s">
+      <c r="L61" s="10"/>
+      <c r="M61" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="26"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
@@ -2993,30 +3114,30 @@
       <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12" t="s">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12" t="s">
+      <c r="H62" s="10"/>
+      <c r="I62" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12" t="s">
+      <c r="J62" s="10"/>
+      <c r="K62" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="29"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
@@ -3026,35 +3147,35 @@
       <c r="Y62" s="1"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15" t="s">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15" t="s">
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15" t="s">
+      <c r="F63" s="5"/>
+      <c r="G63" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15" t="s">
+      <c r="H63" s="5"/>
+      <c r="I63" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15" t="s">
+      <c r="J63" s="5"/>
+      <c r="K63" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15" t="s">
+      <c r="L63" s="5"/>
+      <c r="M63" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -3067,29 +3188,29 @@
       <c r="Y63" s="1"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15" t="s">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15" t="s">
+      <c r="F64" s="5"/>
+      <c r="G64" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15" t="s">
+      <c r="H64" s="5"/>
+      <c r="I64" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15" t="s">
+      <c r="J64" s="5"/>
+      <c r="K64" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -3102,37 +3223,37 @@
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="13" t="s">
+      <c r="B65" s="10"/>
+      <c r="C65" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="15"/>
+      <c r="E65" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F65" s="14"/>
-      <c r="G65" s="13" t="s">
+      <c r="F65" s="20"/>
+      <c r="G65" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="14"/>
-      <c r="I65" s="13" t="s">
+      <c r="H65" s="20"/>
+      <c r="I65" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="14"/>
-      <c r="K65" s="13" t="s">
+      <c r="J65" s="20"/>
+      <c r="K65" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L65" s="14"/>
-      <c r="M65" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N65" s="6"/>
-      <c r="O65" s="7"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="N65" s="14"/>
+      <c r="O65" s="15"/>
       <c r="P65" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
@@ -3145,29 +3266,29 @@
       <c r="Y65" s="2"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="13" t="s">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="14"/>
-      <c r="G66" s="13" t="s">
+      <c r="F66" s="20"/>
+      <c r="G66" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H66" s="14"/>
-      <c r="I66" s="13" t="s">
+      <c r="H66" s="20"/>
+      <c r="I66" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="J66" s="14"/>
-      <c r="K66" s="13" t="s">
+      <c r="J66" s="20"/>
+      <c r="K66" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L66" s="14"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="10"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="18"/>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
@@ -3180,35 +3301,35 @@
       <c r="Y66" s="2"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15" t="s">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15" t="s">
+      <c r="D67" s="5"/>
+      <c r="E67" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15" t="s">
+      <c r="F67" s="5"/>
+      <c r="G67" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15" t="s">
+      <c r="H67" s="5"/>
+      <c r="I67" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15" t="s">
+      <c r="J67" s="5"/>
+      <c r="K67" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15" t="s">
+      <c r="L67" s="5"/>
+      <c r="M67" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -3221,29 +3342,29 @@
       <c r="Y67" s="1"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15" t="s">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5" t="s">
         <v>72</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I68" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15" t="s">
+      <c r="I68" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
@@ -3256,23 +3377,23 @@
       <c r="Y68" s="2"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
       <c r="H69" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
@@ -3285,23 +3406,23 @@
       <c r="Y69" s="2"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
       <c r="H70" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
@@ -3314,23 +3435,23 @@
       <c r="Y70" s="2"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
       <c r="H71" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
@@ -3343,23 +3464,23 @@
       <c r="Y71" s="2"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
       <c r="H72" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -3426,23 +3547,23 @@
       <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
@@ -3455,21 +3576,21 @@
       <c r="Y75" s="1"/>
     </row>
     <row r="76" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
@@ -3482,31 +3603,31 @@
       <c r="Y76" s="1"/>
     </row>
     <row r="77" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18" t="s">
+      <c r="B77" s="9"/>
+      <c r="C77" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18" t="s">
+      <c r="D77" s="9"/>
+      <c r="E77" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18" t="s">
+      <c r="F77" s="9"/>
+      <c r="G77" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18" t="s">
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
@@ -3519,27 +3640,27 @@
       <c r="Y77" s="1"/>
     </row>
     <row r="78" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18" t="s">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18" t="s">
+      <c r="H78" s="9"/>
+      <c r="I78" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18" t="s">
+      <c r="J78" s="9"/>
+      <c r="K78" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -3552,38 +3673,40 @@
       <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15" t="s">
+      <c r="B79" s="5"/>
+      <c r="C79" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15" t="s">
+      <c r="D79" s="5"/>
+      <c r="E79" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15" t="s">
+      <c r="H79" s="5"/>
+      <c r="I79" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15" t="s">
+      <c r="J79" s="5"/>
+      <c r="K79" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
@@ -3593,34 +3716,34 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15" t="s">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5" t="s">
         <v>75</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I80" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
@@ -3630,28 +3753,26 @@
       <c r="Y80" s="2"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
       <c r="H81" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I81" s="16"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="17"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="I81" s="6"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
@@ -3661,26 +3782,26 @@
       <c r="Y81" s="2"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
       <c r="H82" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
@@ -3690,26 +3811,26 @@
       <c r="Y82" s="2"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
       <c r="H83" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
@@ -3719,26 +3840,26 @@
       <c r="Y83" s="2"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
       <c r="H84" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
@@ -3748,35 +3869,35 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12" t="s">
+      <c r="B85" s="10"/>
+      <c r="C85" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12" t="s">
+      <c r="H85" s="10"/>
+      <c r="I85" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12" t="s">
+      <c r="J85" s="10"/>
+      <c r="K85" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="N85" s="12"/>
-      <c r="O85" s="12"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
@@ -3789,29 +3910,29 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12" t="s">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
-      <c r="O86" s="12"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
@@ -3824,52 +3945,48 @@
       <c r="Y86" s="2"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
-      <c r="W87" s="2"/>
-      <c r="X87" s="2"/>
-      <c r="Y87" s="2"/>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
@@ -3935,158 +4052,184 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
-      <c r="X91" s="1"/>
-      <c r="Y91" s="1"/>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
-      <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="W92" s="1"/>
-      <c r="X92" s="1"/>
-      <c r="Y92" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="304">
-    <mergeCell ref="M79:O84"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="A79:B84"/>
-    <mergeCell ref="C79:D84"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:G84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="A75:O76"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:F78"/>
-    <mergeCell ref="G77:L77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="M77:O78"/>
-    <mergeCell ref="M67:O72"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="A67:B72"/>
-    <mergeCell ref="C67:D72"/>
-    <mergeCell ref="E67:F72"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:G72"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M61:O62"/>
-    <mergeCell ref="A63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M63:O64"/>
-    <mergeCell ref="A61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:F62"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M46:O47"/>
-    <mergeCell ref="A53:O54"/>
-    <mergeCell ref="A55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:F56"/>
-    <mergeCell ref="G55:L55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M55:O56"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M48:O50"/>
-    <mergeCell ref="G49:G50"/>
+  <mergeCells count="296">
+    <mergeCell ref="P79:R84"/>
+    <mergeCell ref="P57:R62"/>
+    <mergeCell ref="M65:O66"/>
+    <mergeCell ref="P65:R66"/>
+    <mergeCell ref="A65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M57:O60"/>
+    <mergeCell ref="A57:B60"/>
+    <mergeCell ref="C57:D60"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="M85:O86"/>
+    <mergeCell ref="A85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="M15:O16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="A13:O14"/>
+    <mergeCell ref="P23:R28"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M23:O26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M27:O28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M21:O22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A5:O6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="M7:O8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M9:O10"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="M29:O31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A29:B31"/>
+    <mergeCell ref="C29:D31"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="M17:O20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="A23:B26"/>
+    <mergeCell ref="C17:D20"/>
+    <mergeCell ref="A17:B20"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="P29:R31"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="M32:O35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="P32:R35"/>
+    <mergeCell ref="A38:O39"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A32:B35"/>
+    <mergeCell ref="C32:D35"/>
+    <mergeCell ref="E32:F35"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M40:O41"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
     <mergeCell ref="P42:R50"/>
     <mergeCell ref="A46:B47"/>
     <mergeCell ref="C46:D47"/>
@@ -4111,190 +4254,102 @@
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="M42:O43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M40:O41"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="M32:O35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="P32:R35"/>
-    <mergeCell ref="A38:O39"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A32:B35"/>
-    <mergeCell ref="C32:D35"/>
-    <mergeCell ref="E32:F35"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="P29:R31"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="M9:O10"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="M29:O31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A29:B31"/>
-    <mergeCell ref="C29:D31"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="M17:O20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="A23:B26"/>
-    <mergeCell ref="C17:D20"/>
-    <mergeCell ref="A17:B20"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A5:O6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="M7:O8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M15:O16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="A13:O14"/>
-    <mergeCell ref="P23:R28"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M23:O26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M27:O28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M21:O22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A85:B88"/>
-    <mergeCell ref="C85:D88"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="M85:O88"/>
-    <mergeCell ref="M65:O66"/>
-    <mergeCell ref="P65:R66"/>
-    <mergeCell ref="P57:R60"/>
-    <mergeCell ref="P61:R62"/>
-    <mergeCell ref="A65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M57:O60"/>
-    <mergeCell ref="A57:B60"/>
-    <mergeCell ref="C57:D60"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="M46:O47"/>
+    <mergeCell ref="A53:O54"/>
+    <mergeCell ref="A55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:F56"/>
+    <mergeCell ref="G55:L55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M55:O56"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M48:O50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M61:O62"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M63:O64"/>
+    <mergeCell ref="A61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:F62"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="A67:B72"/>
+    <mergeCell ref="C67:D72"/>
+    <mergeCell ref="E67:F72"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:G72"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M67:O72"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="A75:O76"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:F78"/>
+    <mergeCell ref="G77:L77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="M77:O78"/>
+    <mergeCell ref="A79:B84"/>
+    <mergeCell ref="C79:D84"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:G84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="M79:O84"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/restfulapi.xlsx
+++ b/docs/restfulapi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAIZAKURA\Desktop\Works\Project\SmartManholeDash\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71052719-2569-42C5-A5C8-D70A63816381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B0563F-DFF4-4061-A2E5-6D51548E41F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-510" yWindow="600" windowWidth="19560" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="2970" windowWidth="19560" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,11 +412,6 @@
   </si>
   <si>
     <t>Create Logs
-Only can delete owned device except admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Logs
 Only can update owned device</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,6 +426,11 @@
   </si>
   <si>
     <t>Only Owned Dept Logs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Logs
+Only can del owned device except admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,10 +801,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -830,6 +833,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -848,38 +875,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1169,30 +1169,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U45" sqref="U45"/>
+    <sheetView tabSelected="1" topLeftCell="F49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P59" sqref="P59:S60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -1205,21 +1205,21 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1260,23 +1260,23 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -1289,21 +1289,21 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1316,31 +1316,31 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1353,27 +1353,27 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25" t="s">
+      <c r="H8" s="21"/>
+      <c r="I8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25" t="s">
+      <c r="J8" s="21"/>
+      <c r="K8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1386,31 +1386,31 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24" t="s">
+      <c r="L9" s="17"/>
+      <c r="M9" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1423,25 +1423,25 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1508,23 +1508,23 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1537,21 +1537,21 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1564,31 +1564,31 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25" t="s">
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1601,27 +1601,27 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25" t="s">
+      <c r="H16" s="21"/>
+      <c r="I16" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25" t="s">
+      <c r="J16" s="21"/>
+      <c r="K16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1634,33 +1634,33 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24" t="s">
+      <c r="H17" s="17"/>
+      <c r="I17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24" t="s">
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1673,25 +1673,25 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24" t="s">
+      <c r="H18" s="17"/>
+      <c r="I18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1704,25 +1704,25 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1735,23 +1735,23 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1764,29 +1764,29 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21" t="s">
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1799,23 +1799,23 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -1828,41 +1828,41 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24" t="s">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24" t="s">
+      <c r="H23" s="17"/>
+      <c r="I23" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24" t="s">
+      <c r="J23" s="17"/>
+      <c r="K23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24" t="s">
+      <c r="L23" s="17"/>
+      <c r="M23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="30" t="s">
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -1871,33 +1871,33 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24" t="s">
+      <c r="F24" s="17"/>
+      <c r="G24" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24" t="s">
+      <c r="H24" s="17"/>
+      <c r="I24" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24" t="s">
+      <c r="J24" s="17"/>
+      <c r="K24" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
@@ -1906,27 +1906,27 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -1935,27 +1935,27 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -1964,39 +1964,39 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21" t="s">
+      <c r="F27" s="22"/>
+      <c r="G27" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21" t="s">
+      <c r="H27" s="22"/>
+      <c r="I27" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21" t="s">
+      <c r="J27" s="22"/>
+      <c r="K27" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21" t="s">
+      <c r="L27" s="22"/>
+      <c r="M27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -2005,33 +2005,33 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21" t="s">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21" t="s">
+      <c r="F28" s="22"/>
+      <c r="G28" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21" t="s">
+      <c r="H28" s="22"/>
+      <c r="I28" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21" t="s">
+      <c r="J28" s="22"/>
+      <c r="K28" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -2040,41 +2040,41 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24" t="s">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24" t="s">
+      <c r="F29" s="17"/>
+      <c r="G29" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24" t="s">
+      <c r="H29" s="17"/>
+      <c r="I29" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24" t="s">
+      <c r="J29" s="17"/>
+      <c r="K29" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24" t="s">
+      <c r="L29" s="17"/>
+      <c r="M29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="5" t="s">
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -2083,33 +2083,33 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24" t="s">
+      <c r="F30" s="17"/>
+      <c r="G30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24" t="s">
+      <c r="H30" s="17"/>
+      <c r="I30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24" t="s">
+      <c r="J30" s="17"/>
+      <c r="K30" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -2118,41 +2118,41 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21" t="s">
+      <c r="F31" s="22"/>
+      <c r="G31" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21" t="s">
+      <c r="H31" s="22"/>
+      <c r="I31" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21" t="s">
+      <c r="J31" s="22"/>
+      <c r="K31" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21" t="s">
+      <c r="L31" s="22"/>
+      <c r="M31" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="30" t="s">
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -2161,33 +2161,33 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21" t="s">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22" t="s">
         <v>1</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21" t="s">
+      <c r="J32" s="22"/>
+      <c r="K32" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -2196,27 +2196,27 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
@@ -2225,27 +2225,27 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
@@ -2308,23 +2308,23 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -2337,21 +2337,21 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -2364,31 +2364,31 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25" t="s">
+      <c r="D39" s="21"/>
+      <c r="E39" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25" t="s">
+      <c r="F39" s="21"/>
+      <c r="G39" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25" t="s">
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -2401,27 +2401,27 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25" t="s">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25" t="s">
+      <c r="H40" s="21"/>
+      <c r="I40" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25" t="s">
+      <c r="J40" s="21"/>
+      <c r="K40" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -2434,41 +2434,41 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24" t="s">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24" t="s">
+      <c r="D41" s="17"/>
+      <c r="E41" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24" t="s">
+      <c r="F41" s="17"/>
+      <c r="G41" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24" t="s">
+      <c r="H41" s="17"/>
+      <c r="I41" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24" t="s">
+      <c r="J41" s="17"/>
+      <c r="K41" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24" t="s">
+      <c r="L41" s="17"/>
+      <c r="M41" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="6" t="s">
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="9"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
@@ -2477,33 +2477,33 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24" t="s">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24" t="s">
+      <c r="F42" s="17"/>
+      <c r="G42" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24" t="s">
+      <c r="H42" s="17"/>
+      <c r="I42" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24" t="s">
+      <c r="J42" s="17"/>
+      <c r="K42" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="11"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="12"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
@@ -2512,39 +2512,39 @@
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21" t="s">
+      <c r="F43" s="22"/>
+      <c r="G43" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21" t="s">
+      <c r="H43" s="22"/>
+      <c r="I43" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21" t="s">
+      <c r="J43" s="22"/>
+      <c r="K43" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21" t="s">
+      <c r="L43" s="22"/>
+      <c r="M43" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="11"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="12"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
@@ -2553,31 +2553,31 @@
       <c r="Y43" s="1"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21" t="s">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21" t="s">
+      <c r="H44" s="22"/>
+      <c r="I44" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21" t="s">
+      <c r="J44" s="22"/>
+      <c r="K44" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="11"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="12"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
@@ -2586,39 +2586,39 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24" t="s">
+      <c r="B45" s="17"/>
+      <c r="C45" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24" t="s">
+      <c r="D45" s="17"/>
+      <c r="E45" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24" t="s">
+      <c r="F45" s="17"/>
+      <c r="G45" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24" t="s">
+      <c r="H45" s="17"/>
+      <c r="I45" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24" t="s">
+      <c r="J45" s="17"/>
+      <c r="K45" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24" t="s">
+      <c r="L45" s="17"/>
+      <c r="M45" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="11"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="12"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
@@ -2627,33 +2627,33 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24" t="s">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24" t="s">
+      <c r="F46" s="17"/>
+      <c r="G46" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24" t="s">
+      <c r="H46" s="17"/>
+      <c r="I46" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24" t="s">
+      <c r="J46" s="17"/>
+      <c r="K46" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="11"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="12"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
@@ -2662,35 +2662,35 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21" t="s">
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21" t="s">
+      <c r="L47" s="22"/>
+      <c r="M47" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="11"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="12"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
@@ -2699,31 +2699,31 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21" t="s">
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22" t="s">
         <v>39</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21" t="s">
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="11"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="12"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
@@ -2732,27 +2732,27 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
       <c r="H49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="14"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="15"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
@@ -2815,23 +2815,23 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -2844,21 +2844,21 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -2871,31 +2871,31 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25" t="s">
+      <c r="B54" s="21"/>
+      <c r="C54" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25" t="s">
+      <c r="D54" s="21"/>
+      <c r="E54" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25" t="s">
+      <c r="F54" s="21"/>
+      <c r="G54" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25" t="s">
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -2908,27 +2908,27 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25" t="s">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25" t="s">
+      <c r="H55" s="21"/>
+      <c r="I55" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25" t="s">
+      <c r="J55" s="21"/>
+      <c r="K55" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -2941,41 +2941,41 @@
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24" t="s">
+      <c r="B56" s="17"/>
+      <c r="C56" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24" t="s">
+      <c r="D56" s="17"/>
+      <c r="E56" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24" t="s">
+      <c r="F56" s="17"/>
+      <c r="G56" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24" t="s">
+      <c r="H56" s="17"/>
+      <c r="I56" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24" t="s">
+      <c r="J56" s="17"/>
+      <c r="K56" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24" t="s">
+      <c r="L56" s="17"/>
+      <c r="M56" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="8"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="9"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
@@ -2984,33 +2984,33 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24" t="s">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24" t="s">
+      <c r="F57" s="17"/>
+      <c r="G57" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24" t="s">
+      <c r="H57" s="17"/>
+      <c r="I57" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24" t="s">
+      <c r="J57" s="17"/>
+      <c r="K57" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="11"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="12"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
@@ -3019,27 +3019,27 @@
       <c r="Y57" s="2"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="11"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="12"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
@@ -3048,41 +3048,41 @@
       <c r="Y58" s="2"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21" t="s">
+      <c r="B59" s="22"/>
+      <c r="C59" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21" t="s">
+      <c r="D59" s="22"/>
+      <c r="E59" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21" t="s">
+      <c r="F59" s="22"/>
+      <c r="G59" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21" t="s">
+      <c r="H59" s="22"/>
+      <c r="I59" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21" t="s">
+      <c r="J59" s="22"/>
+      <c r="K59" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L59" s="21"/>
-      <c r="M59" s="21" t="s">
+      <c r="L59" s="22"/>
+      <c r="M59" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="N59" s="21"/>
-      <c r="O59" s="21"/>
-      <c r="P59" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="8"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="9"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
@@ -3091,31 +3091,31 @@
       <c r="Y59" s="1"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21" t="s">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21" t="s">
+      <c r="H60" s="22"/>
+      <c r="I60" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21" t="s">
+      <c r="J60" s="22"/>
+      <c r="K60" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="14"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="15"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
@@ -3124,41 +3124,41 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24" t="s">
+      <c r="B61" s="17"/>
+      <c r="C61" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24" t="s">
+      <c r="D61" s="17"/>
+      <c r="E61" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24" t="s">
+      <c r="F61" s="17"/>
+      <c r="G61" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24" t="s">
+      <c r="H61" s="17"/>
+      <c r="I61" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24" t="s">
+      <c r="J61" s="17"/>
+      <c r="K61" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24" t="s">
+      <c r="L61" s="17"/>
+      <c r="M61" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="N61" s="24"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="8"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="9"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
@@ -3167,33 +3167,33 @@
       <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24" t="s">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24" t="s">
+      <c r="F62" s="17"/>
+      <c r="G62" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24" t="s">
+      <c r="H62" s="17"/>
+      <c r="I62" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24" t="s">
+      <c r="J62" s="17"/>
+      <c r="K62" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="24"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="14"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="15"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
@@ -3202,41 +3202,41 @@
       <c r="Y62" s="1"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="15" t="s">
+      <c r="B63" s="22"/>
+      <c r="C63" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="22" t="s">
+      <c r="D63" s="26"/>
+      <c r="E63" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F63" s="23"/>
-      <c r="G63" s="22" t="s">
+      <c r="F63" s="31"/>
+      <c r="G63" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="23"/>
-      <c r="I63" s="22" t="s">
+      <c r="H63" s="31"/>
+      <c r="I63" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="J63" s="23"/>
-      <c r="K63" s="22" t="s">
+      <c r="J63" s="31"/>
+      <c r="K63" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="L63" s="23"/>
-      <c r="M63" s="15" t="s">
+      <c r="L63" s="31"/>
+      <c r="M63" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="N63" s="16"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
@@ -3245,33 +3245,33 @@
       <c r="Y63" s="2"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="22" t="s">
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F64" s="23"/>
-      <c r="G64" s="22" t="s">
+      <c r="F64" s="31"/>
+      <c r="G64" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H64" s="23"/>
-      <c r="I64" s="22" t="s">
+      <c r="H64" s="31"/>
+      <c r="I64" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J64" s="23"/>
-      <c r="K64" s="22" t="s">
+      <c r="J64" s="31"/>
+      <c r="K64" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="L64" s="23"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
@@ -3280,41 +3280,41 @@
       <c r="Y64" s="2"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24" t="s">
+      <c r="B65" s="17"/>
+      <c r="C65" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24" t="s">
+      <c r="D65" s="17"/>
+      <c r="E65" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24" t="s">
+      <c r="F65" s="17"/>
+      <c r="G65" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24" t="s">
+      <c r="H65" s="17"/>
+      <c r="I65" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24" t="s">
+      <c r="J65" s="17"/>
+      <c r="K65" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L65" s="24"/>
-      <c r="M65" s="24" t="s">
+      <c r="L65" s="17"/>
+      <c r="M65" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="30" t="s">
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
@@ -3323,33 +3323,33 @@
       <c r="Y65" s="1"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24" t="s">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17" t="s">
         <v>71</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I66" s="24" t="s">
+      <c r="I66" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24" t="s">
+      <c r="J66" s="17"/>
+      <c r="K66" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="24"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
@@ -3358,27 +3358,27 @@
       <c r="Y66" s="2"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
       <c r="H67" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
@@ -3387,27 +3387,27 @@
       <c r="Y67" s="2"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
       <c r="H68" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
@@ -3416,27 +3416,27 @@
       <c r="Y68" s="2"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
       <c r="H69" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
@@ -3445,27 +3445,27 @@
       <c r="Y69" s="2"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
       <c r="H70" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
@@ -3528,23 +3528,23 @@
       <c r="Y72" s="1"/>
     </row>
     <row r="73" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="26"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
@@ -3557,21 +3557,21 @@
       <c r="Y73" s="1"/>
     </row>
     <row r="74" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="26"/>
-      <c r="O74" s="26"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
@@ -3584,31 +3584,31 @@
       <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="1:25" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25" t="s">
+      <c r="B75" s="21"/>
+      <c r="C75" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25" t="s">
+      <c r="D75" s="21"/>
+      <c r="E75" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25" t="s">
+      <c r="F75" s="21"/>
+      <c r="G75" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25" t="s">
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="N75" s="25"/>
-      <c r="O75" s="25"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
@@ -3621,27 +3621,27 @@
       <c r="Y75" s="1"/>
     </row>
     <row r="76" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25" t="s">
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25" t="s">
+      <c r="H76" s="21"/>
+      <c r="I76" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25" t="s">
+      <c r="J76" s="21"/>
+      <c r="K76" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="25"/>
-      <c r="O76" s="25"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
@@ -3654,41 +3654,41 @@
       <c r="Y76" s="1"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A77" s="24" t="s">
+      <c r="A77" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24" t="s">
+      <c r="B77" s="17"/>
+      <c r="C77" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24" t="s">
+      <c r="D77" s="17"/>
+      <c r="E77" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24" t="s">
+      <c r="F77" s="17"/>
+      <c r="G77" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24" t="s">
+      <c r="H77" s="17"/>
+      <c r="I77" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24" t="s">
+      <c r="J77" s="17"/>
+      <c r="K77" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L77" s="24"/>
-      <c r="M77" s="24" t="s">
+      <c r="L77" s="17"/>
+      <c r="M77" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="N77" s="24"/>
-      <c r="O77" s="24"/>
-      <c r="P77" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
@@ -3697,35 +3697,35 @@
       <c r="Y77" s="1"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24" t="s">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24" t="s">
+      <c r="F78" s="17"/>
+      <c r="G78" s="17" t="s">
         <v>74</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I78" s="24" t="s">
+      <c r="I78" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24" t="s">
+      <c r="J78" s="17"/>
+      <c r="K78" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
@@ -3734,27 +3734,27 @@
       <c r="Y78" s="2"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A79" s="24"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
       <c r="H79" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I79" s="28"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="24"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
@@ -3763,27 +3763,27 @@
       <c r="Y79" s="2"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A80" s="24"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
       <c r="H80" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
@@ -3792,27 +3792,27 @@
       <c r="Y80" s="2"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A81" s="24"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
       <c r="H81" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="24"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
@@ -3821,27 +3821,27 @@
       <c r="Y81" s="2"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
       <c r="H82" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="24"/>
-      <c r="N82" s="24"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
@@ -3850,39 +3850,39 @@
       <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21" t="s">
+      <c r="B83" s="22"/>
+      <c r="C83" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21" t="s">
+      <c r="D83" s="22"/>
+      <c r="E83" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21" t="s">
+      <c r="F83" s="22"/>
+      <c r="G83" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21" t="s">
+      <c r="H83" s="22"/>
+      <c r="I83" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21" t="s">
+      <c r="J83" s="22"/>
+      <c r="K83" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21" t="s">
+      <c r="L83" s="22"/>
+      <c r="M83" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="N83" s="21"/>
-      <c r="O83" s="21"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
@@ -3891,33 +3891,33 @@
       <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A84" s="21"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21" t="s">
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21" t="s">
+      <c r="F84" s="22"/>
+      <c r="G84" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21" t="s">
+      <c r="H84" s="22"/>
+      <c r="I84" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="J84" s="21"/>
-      <c r="K84" s="21" t="s">
+      <c r="J84" s="22"/>
+      <c r="K84" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="22"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
@@ -4035,87 +4035,192 @@
     </row>
   </sheetData>
   <mergeCells count="291">
-    <mergeCell ref="P63:S64"/>
-    <mergeCell ref="P65:S70"/>
-    <mergeCell ref="P56:S58"/>
-    <mergeCell ref="P59:S60"/>
-    <mergeCell ref="P61:S62"/>
-    <mergeCell ref="P77:S84"/>
-    <mergeCell ref="P41:S49"/>
-    <mergeCell ref="P23:S28"/>
-    <mergeCell ref="P29:S30"/>
-    <mergeCell ref="P31:S34"/>
-    <mergeCell ref="M77:O82"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="A77:B82"/>
-    <mergeCell ref="C77:D82"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:G82"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="A73:O74"/>
-    <mergeCell ref="A75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:F76"/>
-    <mergeCell ref="G75:L75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M75:O76"/>
-    <mergeCell ref="M65:O70"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="A65:B70"/>
-    <mergeCell ref="C65:D70"/>
-    <mergeCell ref="E65:F70"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:G70"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M59:O60"/>
-    <mergeCell ref="A61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M61:O62"/>
-    <mergeCell ref="A59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:F60"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:O58"/>
+    <mergeCell ref="A56:B58"/>
+    <mergeCell ref="C56:D58"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="M63:O64"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="M83:O84"/>
+    <mergeCell ref="A83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="M15:O16"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="A13:O14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M23:O26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M27:O28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M21:O22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A5:O6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="M7:O8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M9:O10"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="M29:O30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="M17:O20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="A23:B26"/>
+    <mergeCell ref="C17:D20"/>
+    <mergeCell ref="A17:B20"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="M31:O34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A37:O38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="G39:L39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A31:B34"/>
+    <mergeCell ref="C31:D34"/>
+    <mergeCell ref="E31:F34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M39:O40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M41:O42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M43:O44"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A47:B49"/>
+    <mergeCell ref="C47:D49"/>
+    <mergeCell ref="E47:F49"/>
+    <mergeCell ref="G47:H47"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="G57:H57"/>
@@ -4140,192 +4245,87 @@
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="M47:O49"/>
     <mergeCell ref="G48:G49"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A47:B49"/>
-    <mergeCell ref="C47:D49"/>
-    <mergeCell ref="E47:F49"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M43:O44"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M41:O42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M39:O40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="M31:O34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A37:O38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="G39:L39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A31:B34"/>
-    <mergeCell ref="C31:D34"/>
-    <mergeCell ref="E31:F34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="M9:O10"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="M29:O30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="M17:O20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="A23:B26"/>
-    <mergeCell ref="C17:D20"/>
-    <mergeCell ref="A17:B20"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A5:O6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="M7:O8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M15:O16"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="A13:O14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M23:O26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M27:O28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M21:O22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="M83:O84"/>
-    <mergeCell ref="A83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="M63:O64"/>
-    <mergeCell ref="A63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:O58"/>
-    <mergeCell ref="A56:B58"/>
-    <mergeCell ref="C56:D58"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M59:O60"/>
+    <mergeCell ref="A61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M61:O62"/>
+    <mergeCell ref="A59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:F60"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="A65:B70"/>
+    <mergeCell ref="C65:D70"/>
+    <mergeCell ref="E65:F70"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:G70"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M65:O70"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="A73:O74"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:F76"/>
+    <mergeCell ref="G75:L75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M75:O76"/>
+    <mergeCell ref="A77:B82"/>
+    <mergeCell ref="C77:D82"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:G82"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="M77:O82"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="P63:S64"/>
+    <mergeCell ref="P65:S70"/>
+    <mergeCell ref="P56:S58"/>
+    <mergeCell ref="P59:S60"/>
+    <mergeCell ref="P61:S62"/>
+    <mergeCell ref="P77:S84"/>
+    <mergeCell ref="P41:S49"/>
+    <mergeCell ref="P23:S28"/>
+    <mergeCell ref="P29:S30"/>
+    <mergeCell ref="P31:S34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
